--- a/IBK/excel/BL_ret_BL_result_0715_04_mod.xlsx
+++ b/IBK/excel/BL_ret_BL_result_0715_04_mod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7095" windowWidth="28830" windowHeight="7140"/>
+    <workbookView xWindow="-15" yWindow="6390" windowWidth="28830" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="BL" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="703">
   <si>
     <t>file name</t>
   </si>
@@ -148,7 +148,7 @@
     <t>MAY.18.2019</t>
   </si>
   <si>
-    <t>NEW SHINDAO PEARL</t>
+    <t>NEW SHIDAO PEARL</t>
   </si>
   <si>
     <t>000000264.jpg</t>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>TOKYO, JAPAN</t>
-  </si>
-  <si>
-    <t>SHINDAO, CHINA</t>
   </si>
   <si>
     <t>MAY.17.2019</t>
@@ -2508,20 +2505,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -2848,10 +2846,10 @@
         <v>11.1</v>
       </c>
       <c r="H13" s="3">
-        <v>93.3</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3">
-        <v>57.8</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2894,13 +2892,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2932,36 +2930,36 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -2970,10 +2968,10 @@
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3005,51 +3003,51 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3081,51 +3079,51 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3157,54 +3155,54 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3236,54 +3234,54 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3315,48 +3313,48 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3388,45 +3386,45 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3458,39 +3456,39 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3522,54 +3520,54 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3601,45 +3599,45 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3671,51 +3669,51 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3747,54 +3745,54 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3826,45 +3824,45 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3896,45 +3894,45 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3966,51 +3964,51 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4042,54 +4040,54 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -4121,45 +4119,45 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4191,54 +4189,54 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4270,54 +4268,54 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4349,51 +4347,51 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="G75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4425,54 +4423,54 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4504,54 +4502,54 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="F80" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4583,54 +4581,54 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4662,48 +4660,48 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4735,45 +4733,45 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="G89" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4805,54 +4803,54 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4884,51 +4882,51 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4960,54 +4958,54 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -5039,54 +5037,54 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -5118,51 +5116,51 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -5194,45 +5192,45 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -5264,48 +5262,48 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C110" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -5337,45 +5335,45 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5407,54 +5405,54 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="H117" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -5486,54 +5484,54 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -5565,54 +5563,54 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -5644,54 +5642,54 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -5723,54 +5721,54 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5802,54 +5800,54 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G131" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5881,54 +5879,54 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="D135" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5960,54 +5958,54 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6039,54 +6037,54 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6118,54 +6116,54 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="H143" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6197,39 +6195,39 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H147" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6261,54 +6259,54 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="F150" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -6340,48 +6338,48 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -6413,51 +6411,51 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -6489,51 +6487,51 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="H158" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="G159" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6565,54 +6563,54 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="G162" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -6644,54 +6642,54 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6723,54 +6721,54 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="F167" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -6802,27 +6800,27 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6854,51 +6852,51 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="H174" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -6930,51 +6928,51 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="G176" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>586</v>
-      </c>
       <c r="G177" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H177" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -7006,48 +7004,48 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="H179" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="D180" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="H180" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -7079,48 +7077,48 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="H182" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="D183" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="G183" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="H183" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -7152,48 +7150,48 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="E186" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -7225,54 +7223,54 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="G188" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H188" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="G189" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -7304,7 +7302,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>10</v>
@@ -7313,33 +7311,33 @@
         <v>10</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="G192" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -7371,54 +7369,54 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G194" s="2" t="s">
+      <c r="H194" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G195" s="2" t="s">
+      <c r="H195" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -7450,51 +7448,51 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="G197" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H197" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="G198" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -7526,7 +7524,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -7534,25 +7532,25 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="F201" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G201" s="2" t="s">
+      <c r="H201" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -7584,45 +7582,45 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F203" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F204" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="H204" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7654,48 +7652,48 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>684</v>
-      </c>
       <c r="G206" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="D207" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="H207" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -7727,45 +7725,45 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="H209" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="G210" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G210" s="2" t="s">
+      <c r="H210" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7816,7 +7814,7 @@
         <v>46.8</v>
       </c>
       <c r="H212" s="4">
-        <v>73.8</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="I212" s="4">
         <v>72.900000000000006</v>
